--- a/pollyServer/app/RAG/eval-ds/Queries.xlsx
+++ b/pollyServer/app/RAG/eval-ds/Queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41923358-2FA3-FC44-B48B-056B661A61E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF72A0-3B73-0E48-A77D-4057BE63ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16620" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>queries</t>
-  </si>
-  <si>
-    <t>ground truth</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>source</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Questions to search for</t>
+  </si>
+  <si>
+    <t>1. Ask what are recommendations that they recommend in certain cases</t>
+  </si>
+  <si>
+    <t>2. Ask about case studeis in blue box in some papers</t>
+  </si>
+  <si>
+    <t>3. Ask about numberical data: percent &amp; survey data in "close enough to care" &amp; "making the grade"</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>Ground truth</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -96,10 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,104 +446,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF101DA-6660-784B-8CA7-C0F8F7585B7E}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -548,14 +571,14 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,11 +588,6 @@
       <c r="D26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A23:A25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pollyServer/app/RAG/eval-ds/Queries.xlsx
+++ b/pollyServer/app/RAG/eval-ds/Queries.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF72A0-3B73-0E48-A77D-4057BE63ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2174D-B698-CF40-BEC5-9F36C06A193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16620" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Questions to search for</t>
-  </si>
-  <si>
-    <t>1. Ask what are recommendations that they recommend in certain cases</t>
-  </si>
-  <si>
-    <t>2. Ask about case studeis in blue box in some papers</t>
-  </si>
-  <si>
-    <t>3. Ask about numberical data: percent &amp; survey data in "close enough to care" &amp; "making the grade"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Queries</t>
   </si>
@@ -56,17 +44,106 @@
     <t>Ground truth</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>What is the purpose of the "General Power of Competence" for councils in the UK?</t>
+  </si>
+  <si>
+    <t>The "General Power of Competence," as outlined by the Local Government Association in their 2013 publication, is designed to empower councils in the UK to make decisions and take actions they deem necessary to improve their communities without having to rely on specific grants of authority from the central government. This power allows local councils to operate more autonomously, fostering innovation and responsiveness to local needs. It essentially provides councils with the legal flexibility to undertake any activity or initiative that might benefit their local area, provided it is not expressly prohibited by law. This initiative is part of broader efforts to decentralize governance and strengthen local democracy, enabling councils to play a more active role in addressing community issues.</t>
+  </si>
+  <si>
+    <t>What-powers-where-achieving-the-devolution-revolution.pdf</t>
+  </si>
+  <si>
+    <t>Making-the-grade.pdf</t>
+  </si>
+  <si>
+    <t>How does the Department of Health and Social Care manage performance according to the FOI request?</t>
+  </si>
+  <si>
+    <t>The response to the FOI request is not clear on how they manage performance or whether or not they use performance ratings or performance assessments.</t>
+  </si>
+  <si>
+    <t>What percentage of line managers strongly disagreed with feeling supported through their training to manage poor performance and disciplinary matters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the delivery and administrative powers of local government in England?  </t>
+  </si>
+  <si>
+    <t>In England, local governments possess specific delivery and administrative powers that allow them to manage a wide range of services and functions within their jurisdictions. Delivery powers refer to their ability to provide public services such as education, housing, and social services directly to the community. Administrative powers include regulatory functions like planning permission, local taxation, and maintaining public order. These powers enable local governments to tailor services and policies to the needs of their constituents and play a crucial role in implementing national policies at the regional level. The scope of these powers can vary significantly depending on the type of local authority, such as county councils, district councils, and unitary authorities, each with different responsibilities and capabilities.</t>
+  </si>
+  <si>
+    <t>What is the primary focus of Reform's new programme, "Reimagining the State"?</t>
+  </si>
+  <si>
+    <t>The primary focus of Reform's new programme, "Reimagining the State," is to propose a bold new vision for the role and shape of the State. This vision aims to create conditions conducive to strong, confident communities, dynamic and innovative markets, and transformative, sustainable public services. The programme acknowledges the need to address the foundational issues in Britain’s social and economic model, especially in light of a recent national crisis, and seeks systemic changes rather than temporary solutions. One of the significant components of this programme is "Reimagining Whitehall," a major workstream that supports these overarching goals.</t>
+  </si>
+  <si>
+    <t>What percentage of respondents strongly or somewhat agreed with the statement "I am aware of disciplinary issues where action should have been taken but has not"?</t>
+  </si>
+  <si>
+    <t>62 per cent</t>
+  </si>
+  <si>
+    <t>The-power-of-prevention-3.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the rank of the UK in terms of measles immunisation coverage among OECD countries in 2021?  </t>
+  </si>
+  <si>
+    <t>31st</t>
+  </si>
+  <si>
+    <t>What are the causes for concern in England's local government system</t>
+  </si>
+  <si>
+    <t>What-powers-where-achieving-the-devolution-revolution.pdf (ground truth in four  bullet pointis on p.9)</t>
+  </si>
+  <si>
+    <t>What percentage of line managers somewhat disagree that they feel supported through their training to manage poor performance and disciplinary matters?</t>
+  </si>
+  <si>
+    <t>What contributed to the Windrush scandal?</t>
+  </si>
+  <si>
+    <t>“Operational and organisational failing” at the Home Office</t>
+  </si>
+  <si>
+    <t>How does Reform define AI?</t>
+  </si>
+  <si>
+    <t>Theories and techniques developed to allow computer systems to perform tasks 
+normally requiring human or biological intelligence</t>
+  </si>
+  <si>
+    <t>p.59</t>
+  </si>
+  <si>
+    <t>Is there a risk of a 'race to the bottom' in devolution policy?</t>
+  </si>
+  <si>
+    <t>What-powers-where-achieving-the-devolution-revolution.pdf (ground truth is section 3.1.2 on p.21, particularly if it cites the international evidence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main concerns with England's local government system include:
+1. Inconsistency and Opacity: Governance structures vary greatly across regions, making public engagement difficult.
+2. Lack of Hyper-Local Governance: Local authorities serve large populations (averaging 170,000), limiting direct community involvement compared to other European countries.
+3. Lack of Strategic Regional Governance: Combined authorities are inconsistent in size and power, unlike other nations with clear regional governance tiers.
+4. Unfunded Mandates: Limited ability to raise revenue and the burden of costly statutory duties leave many local mandates underfunded.
+These issues hinder effective local governance and further devolution.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a concern that increased decentralisation could trigger a 'race to the bottom' where local authorities reduce spending on welfare or make drastic tax changes. However, international evidence does not support this fear. In Germany, for example, decentralised management of services like prisons and care home regulation has shown innovation and collaboration instead of harmful competition. A well-designed local government finance system with fiscal devolution, strategic investment, long-term funding, and strict audits can prevent rapid cuts. Differences in local approaches can foster innovation, systemic learning, and comparative advantages rather than negative outcomes.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +162,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -108,10 +191,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,146 +546,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF101DA-6660-784B-8CA7-C0F8F7585B7E}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="I4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pollyServer/app/RAG/eval-ds/Queries.xlsx
+++ b/pollyServer/app/RAG/eval-ds/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2174D-B698-CF40-BEC5-9F36C06A193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD8221-FFAC-C842-8407-A3D31091AD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Queries</t>
   </si>
@@ -137,6 +137,9 @@
   <si>
     <t xml:space="preserve">There is a concern that increased decentralisation could trigger a 'race to the bottom' where local authorities reduce spending on welfare or make drastic tax changes. However, international evidence does not support this fear. In Germany, for example, decentralised management of services like prisons and care home regulation has shown innovation and collaboration instead of harmful competition. A well-designed local government finance system with fiscal devolution, strategic investment, long-term funding, and strict audits can prevent rapid cuts. Differences in local approaches can foster innovation, systemic learning, and comparative advantages rather than negative outcomes.
 </t>
+  </si>
+  <si>
+    <t>Page No</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -206,10 +209,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,7 +549,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -730,10 +730,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">

--- a/pollyServer/app/RAG/eval-ds/Queries.xlsx
+++ b/pollyServer/app/RAG/eval-ds/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD8221-FFAC-C842-8407-A3D31091AD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09331C75-8E55-344C-9432-73543BBCB7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
+    <workbookView xWindow="-800" yWindow="780" windowWidth="28800" windowHeight="16620" xr2:uid="{1F640431-E967-3B45-8F19-D2BC8246C531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF101DA-6660-784B-8CA7-C0F8F7585B7E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
